--- a/Uploads/e6922f48-62a2-4d6d-9322-4845b5070f6dExcel.xlsx
+++ b/Uploads/e6922f48-62a2-4d6d-9322-4845b5070f6dExcel.xlsx
@@ -13,14 +13,13 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="14-03-2020" sheetId="1" r:id="rId1"/>
-    <x:sheet name="15-03-2020" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:calcPr calcId="0"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="46">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="43">
   <x:si>
     <x:t>TT</x:t>
   </x:si>
@@ -151,15 +150,6 @@
   </x:si>
   <x:si>
     <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ngày 15/03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHỈ TIÊU CHẤT LƯỢNG NƯỚC ĐO ĐẠC LÚC 9 GIỜ SÁNG NGÀY 15/03/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1601,898 +1591,4 @@
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup orientation="portrait" r:id="rId1"/>
 </x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:P20"/>
-  <x:sheetViews>
-    <x:sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <x:selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <x:selection pane="bottomRight" activeCell="I7" sqref="I7"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
-    <x:col min="3" max="14" width="14.28515625" style="2" customWidth="1"/>
-    <x:col min="15" max="15" width="14.85546875" style="2" customWidth="1"/>
-    <x:col min="16" max="16384" width="9.140625" style="2"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="19" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="19" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C1" s="17" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D1" s="18"/>
-      <x:c r="E1" s="18"/>
-      <x:c r="F1" s="18"/>
-      <x:c r="G1" s="18"/>
-      <x:c r="H1" s="18"/>
-      <x:c r="I1" s="18"/>
-      <x:c r="J1" s="18"/>
-      <x:c r="K1" s="18"/>
-      <x:c r="L1" s="18"/>
-      <x:c r="M1" s="18"/>
-      <x:c r="N1" s="18"/>
-      <x:c r="O1" s="18"/>
-    </x:row>
-    <x:row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="19"/>
-      <x:c r="B2" s="19"/>
-      <x:c r="C2" s="14"/>
-      <x:c r="D2" s="15"/>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="15"/>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="13" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="J2" s="15"/>
-      <x:c r="K2" s="15"/>
-      <x:c r="L2" s="15"/>
-      <x:c r="M2" s="15"/>
-      <x:c r="N2" s="15"/>
-      <x:c r="O2" s="16"/>
-    </x:row>
-    <x:row r="3" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="19"/>
-      <x:c r="B3" s="19"/>
-      <x:c r="C3" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D3" s="8" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E3" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F3" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G3" s="8" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H3" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I3" s="8" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J3" s="8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="K3" s="8" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L3" s="8" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="M3" s="8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="N3" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="O3" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="P3" s="7"/>
-    </x:row>
-    <x:row r="4" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="20"/>
-      <x:c r="B4" s="20"/>
-      <x:c r="C4" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D4" s="9" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E4" s="9" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F4" s="9" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G4" s="9" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H4" s="9" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I4" s="9" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J4" s="9" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K4" s="9" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="L4" s="9" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="M4" s="9" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="N4" s="9" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="O4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="P4" s="7"/>
-    </x:row>
-    <x:row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="4" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B5" s="21" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C5" s="22"/>
-      <x:c r="D5" s="22"/>
-      <x:c r="E5" s="22"/>
-      <x:c r="F5" s="22"/>
-      <x:c r="G5" s="22"/>
-      <x:c r="H5" s="22"/>
-      <x:c r="I5" s="22"/>
-      <x:c r="J5" s="22"/>
-      <x:c r="K5" s="22"/>
-      <x:c r="L5" s="22"/>
-      <x:c r="M5" s="22"/>
-      <x:c r="N5" s="22"/>
-      <x:c r="O5" s="23"/>
-    </x:row>
-    <x:row r="6" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="3">
-        <x:v>1.1000000000000001</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C6" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D6" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E6" s="12" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F6" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G6" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H6" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I6" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J6" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K6" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L6" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M6" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N6" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O6" s="12">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="3">
-        <x:v>1.2</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C7" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D7" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E7" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F7" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G7" s="12">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H7" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I7" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J7" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K7" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L7" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M7" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N7" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O7" s="12">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="3">
-        <x:v>1.3</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C8" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D8" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E8" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F8" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G8" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H8" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I8" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J8" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K8" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L8" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M8" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N8" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O8" s="12">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="3">
-        <x:v>1.4</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C9" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D9" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E9" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F9" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G9" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H9" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I9" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J9" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K9" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L9" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M9" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N9" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O9" s="12">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="3">
-        <x:v>1.5</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C10" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D10" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E10" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F10" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G10" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H10" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I10" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J10" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K10" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L10" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M10" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N10" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O10" s="12">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="3">
-        <x:v>1.6</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C11" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D11" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E11" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F11" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G11" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H11" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I11" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J11" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K11" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L11" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M11" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N11" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O11" s="12">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A12" s="3">
-        <x:v>1.7</x:v>
-      </x:c>
-      <x:c r="B12" s="3" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C12" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D12" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E12" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F12" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G12" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H12" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I12" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J12" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K12" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L12" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M12" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N12" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O12" s="12">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A13" s="3">
-        <x:v>1.8</x:v>
-      </x:c>
-      <x:c r="B13" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C13" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D13" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E13" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F13" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G13" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H13" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I13" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J13" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K13" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L13" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M13" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N13" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O13" s="12">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A14" s="3">
-        <x:v>1.9</x:v>
-      </x:c>
-      <x:c r="B14" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C14" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D14" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E14" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F14" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G14" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H14" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I14" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J14" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K14" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L14" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M14" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N14" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O14" s="12">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A15" s="3">
-        <x:v>1.1000000000000001</x:v>
-      </x:c>
-      <x:c r="B15" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C15" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D15" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E15" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F15" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G15" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H15" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I15" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J15" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K15" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L15" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M15" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N15" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O15" s="12">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A16" s="3">
-        <x:v>1.1100000000000001</x:v>
-      </x:c>
-      <x:c r="B16" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C16" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D16" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E16" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F16" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G16" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H16" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I16" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J16" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K16" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L16" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M16" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N16" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O16" s="12">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A17" s="3">
-        <x:v>1.1200000000000001</x:v>
-      </x:c>
-      <x:c r="B17" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C17" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D17" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E17" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F17" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G17" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H17" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I17" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J17" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K17" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L17" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M17" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N17" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O17" s="12">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A18" s="3">
-        <x:v>1.1299999999999999</x:v>
-      </x:c>
-      <x:c r="B18" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C18" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D18" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E18" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F18" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G18" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H18" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I18" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J18" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K18" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L18" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M18" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N18" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O18" s="12">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A19" s="3">
-        <x:v>1.1399999999999999</x:v>
-      </x:c>
-      <x:c r="B19" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C19" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D19" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E19" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F19" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G19" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H19" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I19" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J19" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K19" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L19" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M19" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N19" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O19" s="12">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A20" s="3">
-        <x:v>1.1499999999999999</x:v>
-      </x:c>
-      <x:c r="B20" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C20" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D20" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E20" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F20" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G20" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H20" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I20" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J20" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K20" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L20" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M20" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N20" s="12">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O20" s="12">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:sheetProtection algorithmName="SHA-512" hashValue="uZ8PQOUfsZJfBqkgZSPR2o0jKqmvEBKfRSGH9JmRt1/Cf1FdbF+EBW4QrAiTAKG2rLCyMD3HLSG+p/9kcy9VnA==" saltValue="2PSXtgSGUT5kTiijyGvqug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <x:mergeCells count="4">
-    <x:mergeCell ref="C1:O1"/>
-    <x:mergeCell ref="A1:A4"/>
-    <x:mergeCell ref="B1:B4"/>
-    <x:mergeCell ref="B5:O5"/>
-  </x:mergeCells>
-  <x:dataValidations count="1">
-    <x:dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Chú ý" error="Nhập số nguyên dương hoặc số phập phân lớn hơn hoặc bằng 0!" promptTitle="Chú ý" prompt="Nhập số nguyên dương hoặc số phập phân lớn hơn hoặc bằng  0!" sqref="C6:O20">
-      <x:formula1>-1</x:formula1>
-    </x:dataValidation>
-  </x:dataValidations>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup orientation="portrait" r:id="rId1"/>
-</x:worksheet>
 </file>